--- a/univariate_association_results.xlsx
+++ b/univariate_association_results.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senol/Desktop/kidney/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E0BCF8-D601-1E4B-BF77-AB69097B829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="logistic_regression" sheetId="1" r:id="rId1"/>
     <sheet name="chi_square" sheetId="2" r:id="rId2"/>
     <sheet name="t_test" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>feature</t>
   </si>
@@ -33,18 +27,6 @@
     <t>p_value</t>
   </si>
   <si>
-    <t>Time_to_Follow_Up_Days</t>
-  </si>
-  <si>
-    <t>Time_Outcome_Follow_up_vorhanden_for_mortality_analysis_Months</t>
-  </si>
-  <si>
-    <t>Date_Follow_Up_year</t>
-  </si>
-  <si>
-    <t>Date_Follow_up_MM.YYYY_year</t>
-  </si>
-  <si>
     <t>eGFR_CKD_EPI_Creatinine_at_Baseline</t>
   </si>
   <si>
@@ -81,6 +63,9 @@
     <t>AVI_Abdominal_Volume_Index</t>
   </si>
   <si>
+    <t>Time_to_death_after_baseline_months</t>
+  </si>
+  <si>
     <t>Urinary_Albumin_Creatinine_ratio_mg_g</t>
   </si>
   <si>
@@ -163,139 +148,13 @@
   </si>
   <si>
     <t>t_stat</t>
-  </si>
-  <si>
-    <r>
-      <t>The univariate association tests (logistic regression, chi-square, and t-test) were performed between each </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>individual feature (variable)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> in your dataset and the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>target variable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Death</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> (mortality status: 1 = deceased, 0 = alive).</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifically:</t>
-  </si>
-  <si>
-    <t>For each feature/column in your processed dataset (after encoding and preprocessing):</t>
-  </si>
-  <si>
-    <t>Univariate logistic regression:</t>
-  </si>
-  <si>
-    <r>
-      <t>Each feature was tested one-by-one as a predictor of Death (binary outcome), i.e.,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.9"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Death ~ feature</t>
-    </r>
-  </si>
-  <si>
-    <t>Chi-square test:</t>
-  </si>
-  <si>
-    <t>For each categorical feature (with ≤10 unique values), a chi-square test was performed between the feature and Death.</t>
-  </si>
-  <si>
-    <t>t-test:</t>
-  </si>
-  <si>
-    <r>
-      <t>For each numerical feature (with &gt;10 unique values), a t-test was performed comparing the means of the feature between Death=0 and Death=1 groups.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>In summary:</t>
-    </r>
-  </si>
-  <si>
-    <t>Each test is between a single feature (column) and the Death outcome.</t>
-  </si>
-  <si>
-    <t>No test was performed between two non-target features (i.e., not between two predictors).</t>
-  </si>
-  <si>
-    <t>Examples of features tested:</t>
-  </si>
-  <si>
-    <t>Age, eGFR, body composition indices, sex, diabetes status, follow-up times, etc.</t>
-  </si>
-  <si>
-    <t>All features in your model input (after encoding) were included.</t>
-  </si>
-  <si>
-    <t>If you want the exact list of all features tested, I can provide that as well!</t>
-  </si>
-  <si>
-    <t>Review changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,32 +165,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12.65"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.9"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -369,28 +206,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -678,20 +504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,884 +522,781 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.6687625188108837E-4</v>
+        <v>-0.03386839425842424</v>
       </c>
       <c r="C2">
-        <v>1.5191876270797631E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.581277991803363E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-1.7245971985409711E-2</v>
+        <v>0.671792300869451</v>
       </c>
       <c r="C3">
-        <v>1.5688687056630861E-18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.730777512229554E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.19431715333836491</v>
+        <v>95.95896595477446</v>
       </c>
       <c r="C4">
-        <v>6.6604137638454428E-18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.997970063049178E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.19432166079211141</v>
+        <v>0.0477292026181653</v>
       </c>
       <c r="C5">
-        <v>6.7923336455086752E-18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.371690459673767E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-3.3868394258424243E-2</v>
+        <v>5.658178377603653</v>
       </c>
       <c r="C6">
-        <v>2.5812779918033629E-14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.362475028409048E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.67179230086945096</v>
+        <v>-0.04701432552814658</v>
       </c>
       <c r="C7">
-        <v>2.7307775122295542E-10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.209229173406494E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>95.958965954774456</v>
+        <v>5.967751277437283</v>
       </c>
       <c r="C8">
-        <v>2.9979700630491778E-10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.059143694485008E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4.7729202618165302E-2</v>
+        <v>0.03617989427489574</v>
       </c>
       <c r="C9">
-        <v>5.3716904596737667E-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.195156038031045E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>5.6581783776036527</v>
+        <v>0.03730824767714353</v>
       </c>
       <c r="C10">
-        <v>6.3624750284090485E-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0001084290380555286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-4.7014325528146578E-2</v>
+        <v>4.340525978253216</v>
       </c>
       <c r="C11">
-        <v>7.2092291734064939E-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0001084290380556165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>5.9677512774372827</v>
+        <v>0.02353836305189003</v>
       </c>
       <c r="C12">
-        <v>6.0591436944850079E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0002526864746071714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>3.6179894274895742E-2</v>
+        <v>0.05263211668878538</v>
       </c>
       <c r="C13">
-        <v>7.1951560380310449E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0005508023224454308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3.7308247677143531E-2</v>
+        <v>0.01091861449657212</v>
       </c>
       <c r="C14">
-        <v>1.0842903805552861E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.001124225283575348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4.3405259782532157</v>
+        <v>0.0006228694807066703</v>
       </c>
       <c r="C15">
-        <v>1.0842903805561649E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.00537011273941281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>2.353836305189003E-2</v>
+        <v>0.002965127478700966</v>
       </c>
       <c r="C16">
-        <v>2.5268647460717139E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.02342977277600626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>5.2632116688785383E-2</v>
+        <v>0.001102278431092562</v>
       </c>
       <c r="C17">
-        <v>5.5080232244543079E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.03465700480760098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>6.2286948070667029E-4</v>
+        <v>-0.02470390334271295</v>
       </c>
       <c r="C18">
-        <v>5.3701127394128103E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0462619757832882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2.9651274787009661E-3</v>
+        <v>11.5467256961452</v>
       </c>
       <c r="C19">
-        <v>2.3429772776006261E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2252598949985123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1.102278431092562E-3</v>
+        <v>0.01429561886587765</v>
       </c>
       <c r="C20">
-        <v>3.4657004807600977E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2453364823297518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-2.4703903342712951E-2</v>
+        <v>0.01445833242098377</v>
       </c>
       <c r="C21">
-        <v>4.6261975783288202E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3185205778859556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>11.546725696145201</v>
+        <v>0.004916387102902623</v>
       </c>
       <c r="C22">
-        <v>0.22525989499851229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5316952743732171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1.429561886587765E-2</v>
+        <v>-0.5721175032903866</v>
       </c>
       <c r="C23">
-        <v>0.2453364823297518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5634654379059894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1.445833242098377E-2</v>
+        <v>-0.0001111879785078465</v>
       </c>
       <c r="C24">
-        <v>0.31852057788595561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5729632276004085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>4.9163871029026234E-3</v>
+        <v>0.0221148939951941</v>
       </c>
       <c r="C25">
-        <v>0.53169527437321706</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.6311148701404219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.57211750329038658</v>
+        <v>0.0002078402662321044</v>
       </c>
       <c r="C26">
-        <v>0.56346543790598935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7055251178971074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-1.111879785078465E-4</v>
+        <v>0.009245179696897964</v>
       </c>
       <c r="C27">
-        <v>0.57296322760040852</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7439466769073406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2.2114893995194101E-2</v>
+        <v>-0.006577440788743536</v>
       </c>
       <c r="C28">
-        <v>0.63111487014042189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7882366574981525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>2.0784026623210441E-4</v>
+        <v>0.00427074058913958</v>
       </c>
       <c r="C29">
-        <v>0.70552511789710737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.8063828905909656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>9.2451796968979639E-3</v>
+        <v>0.0004886089836562033</v>
       </c>
       <c r="C30">
-        <v>0.74394667690734062</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>-6.5774407887435361E-3</v>
-      </c>
-      <c r="C31">
-        <v>0.78823665749815253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>4.2707405891395803E-3</v>
-      </c>
-      <c r="C32">
-        <v>0.80638289059096557</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>4.8860898365620333E-4</v>
-      </c>
-      <c r="C33">
-        <v>0.92540663076243168</v>
+        <v>0.9254066307624317</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>51.16301042779584</v>
       </c>
       <c r="C2">
-        <v>8.5005408198261982E-13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.500540819826198E-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>22.862535211410169</v>
+        <v>22.86253521141017</v>
       </c>
       <c r="C3">
-        <v>1.740107464418152E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.740107464418152E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>17.708209189207508</v>
+        <v>17.70820918920751</v>
       </c>
       <c r="C4">
-        <v>2.5751288121409439E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.575128812140944E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>10.93224726717045</v>
       </c>
       <c r="C5">
-        <v>9.450479424177779E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0009450479424177779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>10.884650998145229</v>
+        <v>10.88465099814523</v>
       </c>
       <c r="C6">
-        <v>9.6964449405402065E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0009696444940540207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>3.943913631087145</v>
       </c>
       <c r="C7">
-        <v>4.7041218234403048E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.04704121823440305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1.209923193640831</v>
       </c>
       <c r="C8">
-        <v>0.27134733372857311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2713473337285731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>0.54337986699132834</v>
+        <v>0.5433798669913283</v>
       </c>
       <c r="C9">
-        <v>0.46103536554256902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.461035365542569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>0.41780357499303439</v>
+        <v>0.4178035749930344</v>
       </c>
       <c r="C10">
-        <v>0.51803505723526433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5180350572352643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>0.12864485219533381</v>
+        <v>0.1286448521953338</v>
       </c>
       <c r="C11">
-        <v>0.71984126095738965</v>
+        <v>0.7198412609573897</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10.266754498979919</v>
+        <v>8.918166749876075</v>
       </c>
       <c r="C2">
-        <v>1.379516910413725E-22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8.701423979972564E-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-6.943439572904873</v>
+      </c>
+      <c r="C3">
+        <v>1.181604875833656E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>10.26069051586083</v>
-      </c>
-      <c r="C3">
-        <v>1.4531131533478031E-22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>-6.928377480508793</v>
+      </c>
+      <c r="C4">
+        <v>1.30233325764276E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>-6.77033703084219</v>
+      </c>
+      <c r="C5">
+        <v>3.578107771982118E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>8.9181667498760753</v>
-      </c>
-      <c r="C4">
-        <v>8.7014239799725638E-18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>-6.738260511067145</v>
+      </c>
+      <c r="C6">
+        <v>4.38287845725912E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>-6.9434395729048726</v>
-      </c>
-      <c r="C5">
-        <v>1.181604875833656E-11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-6.928377480508793</v>
-      </c>
-      <c r="C6">
-        <v>1.30233325764276E-11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>-5.280313752816478</v>
+      </c>
+      <c r="C7">
+        <v>1.919536996300601E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>-6.7703370308421897</v>
-      </c>
-      <c r="C7">
-        <v>3.5781077719821183E-11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>-4.121808223024165</v>
+      </c>
+      <c r="C8">
+        <v>4.393622126281969E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>-3.98222290301654</v>
+      </c>
+      <c r="C9">
+        <v>7.830466095238915E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>-6.7382605110671454</v>
-      </c>
-      <c r="C8">
-        <v>4.3828784572591198E-11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>-3.982222903016521</v>
+      </c>
+      <c r="C10">
+        <v>7.830466095239523E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>-5.2803137528164781</v>
-      </c>
-      <c r="C9">
-        <v>1.919536996300601E-7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>-3.755722013046552</v>
+      </c>
+      <c r="C11">
+        <v>0.0001929717683135332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>-4.1218082230241651</v>
-      </c>
-      <c r="C10">
-        <v>4.3936221262819692E-5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>-3.543887929859727</v>
+      </c>
+      <c r="C12">
+        <v>0.0004308859135367394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>-3.384503283342448</v>
+      </c>
+      <c r="C13">
+        <v>0.0007685484394242078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>-3.9822229030165399</v>
-      </c>
-      <c r="C11">
-        <v>7.8304660952389148E-5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>-3.9822229030165208</v>
-      </c>
-      <c r="C12">
-        <v>7.8304660952395233E-5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>-3.145368497192204</v>
+      </c>
+      <c r="C14">
+        <v>0.001756543131507383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>-3.7557220130465518</v>
-      </c>
-      <c r="C13">
-        <v>1.9297176831353319E-4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>-2.426717544656211</v>
+      </c>
+      <c r="C15">
+        <v>0.01558503956242433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>-3.5438879298597268</v>
-      </c>
-      <c r="C14">
-        <v>4.3088591353673941E-4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>-2.299926544562123</v>
+      </c>
+      <c r="C16">
+        <v>0.02185932377576106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>-3.1453684971922038</v>
-      </c>
-      <c r="C15">
-        <v>1.7565431315073831E-3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>2.006736315230897</v>
+      </c>
+      <c r="C17">
+        <v>0.04531029218364346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>-2.4267175446562108</v>
-      </c>
-      <c r="C16">
-        <v>1.558503956242433E-2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>-1.213948546800105</v>
+      </c>
+      <c r="C18">
+        <v>0.2253347814792825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>-2.2999265445621231</v>
-      </c>
-      <c r="C17">
-        <v>2.185932377576106E-2</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>-1.162231705321689</v>
+      </c>
+      <c r="C19">
+        <v>0.2456903239286257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
-        <v>2.006736315230897</v>
-      </c>
-      <c r="C18">
-        <v>4.5310292183643457E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B20">
+        <v>-0.9978179433811633</v>
+      </c>
+      <c r="C20">
+        <v>0.3188455144781285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>-1.213948546800105</v>
-      </c>
-      <c r="C19">
-        <v>0.22533478147928249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>-0.6247483145750151</v>
+      </c>
+      <c r="C21">
+        <v>0.532418420723913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>-1.1622317053216891</v>
-      </c>
-      <c r="C20">
-        <v>0.24569032392862569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B22">
+        <v>0.5769279574569446</v>
+      </c>
+      <c r="C22">
+        <v>0.5642452046247197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>-0.99781794338116325</v>
-      </c>
-      <c r="C21">
-        <v>0.31884551447812848</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>-0.62474831457501512</v>
-      </c>
-      <c r="C22">
-        <v>0.53241842072391299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0.5629915966416261</v>
+      </c>
+      <c r="C23">
+        <v>0.5736904649612176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
-        <v>0.57692795745694458</v>
-      </c>
-      <c r="C23">
-        <v>0.56424520462471972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>-0.3772147152737356</v>
+      </c>
+      <c r="C24">
+        <v>0.7061725111157113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
-        <v>0.56299159664162612</v>
-      </c>
-      <c r="C24">
-        <v>0.57369046496121756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>-0.3260663031999501</v>
+      </c>
+      <c r="C25">
+        <v>0.7445092648908915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0.2721948726806414</v>
+      </c>
+      <c r="C26">
+        <v>0.7855834358333046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>-0.37721471527373562</v>
-      </c>
-      <c r="C25">
-        <v>0.70617251111571133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>-0.2446447394686897</v>
+      </c>
+      <c r="C27">
+        <v>0.8068308905032067</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
-        <v>-0.32606630319995011</v>
-      </c>
-      <c r="C26">
-        <v>0.74450926489089153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.27219487268064141</v>
-      </c>
-      <c r="C27">
-        <v>0.78558343583330459</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
       <c r="B28">
-        <v>-0.2446447394686897</v>
+        <v>-0.09344250095680333</v>
       </c>
       <c r="C28">
-        <v>0.80683089050320667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>-9.3442500956803329E-2</v>
-      </c>
-      <c r="C29">
-        <v>0.92558908722261057</v>
+        <v>0.9255890872226106</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>